--- a/RailIndexPrj/3-2 全国铁路分地区营业里程.xlsx
+++ b/RailIndexPrj/3-2 全国铁路分地区营业里程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -303,8 +303,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -490,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -504,17 +505,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -532,6 +527,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -840,114 +838,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AB1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AE1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AF1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AG1" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1048,9 +1049,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
-        <v>33238</v>
+    <row r="3" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>1990</v>
       </c>
       <c r="B3" s="2">
         <v>57899.199999999997</v>
@@ -1145,397 +1146,397 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
-        <v>33603</v>
-      </c>
-      <c r="B4" s="6">
+    <row r="4" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>1991</v>
+      </c>
+      <c r="B4" s="5">
         <v>57825.5</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>1038.0999999999999</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>567.9</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>3629</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>2438.9</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>5091.8999999999996</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>3769.7</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>3479.5</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>5429</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>259</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>748</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>871</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <v>1633.1</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>1015</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <v>1637</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="5">
         <v>2218</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="5">
         <v>3504.9</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="5">
         <v>1821</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="5">
         <v>2531.8000000000002</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="5">
         <v>1000.9</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="5">
         <v>1974.9</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="5">
         <v>219</v>
       </c>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6">
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5">
         <v>2974</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="Z4" s="5">
         <v>1419</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AA4" s="5">
         <v>1642.9</v>
       </c>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6">
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5">
         <v>1826</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AD4" s="5">
         <v>2219</v>
       </c>
-      <c r="AE4" s="6">
+      <c r="AE4" s="5">
         <v>1095</v>
       </c>
-      <c r="AF4" s="6">
+      <c r="AF4" s="5">
         <v>429</v>
       </c>
-      <c r="AG4" s="7">
+      <c r="AG4" s="6">
         <v>1343</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
-        <v>33969</v>
-      </c>
-      <c r="B5" s="9">
+    <row r="5" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>1992</v>
+      </c>
+      <c r="B5" s="7">
         <v>58075.9</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>1047.4000000000001</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>582.1</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>3616.1</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>2437.5</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <v>5082.8</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <v>3776.7</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <v>3479.2</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <v>5482</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <v>235.2</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="7">
         <v>744.4</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="7">
         <v>902.9</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="7">
         <v>1761</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="7">
         <v>1015.3</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="7">
         <v>1636</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="7">
         <v>2223.6999999999998</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="7">
         <v>3533.1</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="7">
         <v>1823.3</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="7">
         <v>2519.9</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="7">
         <v>1002.6999999999999</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="7">
         <v>1978.6999999999998</v>
       </c>
-      <c r="W5" s="9">
+      <c r="W5" s="7">
         <v>219</v>
       </c>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9">
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7">
         <v>3031.6</v>
       </c>
-      <c r="Z5" s="9">
+      <c r="Z5" s="7">
         <v>1422.6</v>
       </c>
-      <c r="AA5" s="9">
+      <c r="AA5" s="7">
         <v>1610</v>
       </c>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9">
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7">
         <v>1826</v>
       </c>
-      <c r="AD5" s="9">
+      <c r="AD5" s="7">
         <v>2219.5</v>
       </c>
-      <c r="AE5" s="9">
+      <c r="AE5" s="7">
         <v>1094.7</v>
       </c>
-      <c r="AF5" s="9">
+      <c r="AF5" s="7">
         <v>428.5</v>
       </c>
-      <c r="AG5" s="10">
+      <c r="AG5" s="8">
         <v>1342.5</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
-        <v>34334</v>
-      </c>
-      <c r="B6" s="9">
+    <row r="6" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>1993</v>
+      </c>
+      <c r="B6" s="7">
         <v>58602.499999999985</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>1049.3</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>620.1</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>3734.7</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>2495.6999999999998</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
         <v>5083.1000000000004</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <v>3771.7</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <v>3544.2</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="7">
         <v>5436.9</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="7">
         <v>247.1</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="7">
         <v>746.7</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="7">
         <v>902.9</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="7">
         <v>1761.2</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="7">
         <v>1015.3</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="7">
         <v>1637.5</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="7">
         <v>2362</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="7">
         <v>3503.2</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="7">
         <v>1832.5</v>
       </c>
-      <c r="T6" s="9">
+      <c r="T6" s="7">
         <v>2526.1</v>
       </c>
-      <c r="U6" s="9">
+      <c r="U6" s="7">
         <v>1003</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V6" s="7">
         <v>1990.6</v>
       </c>
-      <c r="W6" s="9">
+      <c r="W6" s="7">
         <v>219</v>
       </c>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9">
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7">
         <v>3108.5</v>
       </c>
-      <c r="Z6" s="9">
+      <c r="Z6" s="7">
         <v>1410.7</v>
       </c>
-      <c r="AA6" s="9">
+      <c r="AA6" s="7">
         <v>1665.5</v>
       </c>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9">
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7">
         <v>1825.8</v>
       </c>
-      <c r="AD6" s="9">
+      <c r="AD6" s="7">
         <v>2219.5</v>
       </c>
-      <c r="AE6" s="9">
+      <c r="AE6" s="7">
         <v>1094.7</v>
       </c>
-      <c r="AF6" s="9">
+      <c r="AF6" s="7">
         <v>453.2</v>
       </c>
-      <c r="AG6" s="10">
+      <c r="AG6" s="8">
         <v>1342.5</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
-        <v>34699</v>
-      </c>
-      <c r="B7" s="9">
+    <row r="7" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>1994</v>
+      </c>
+      <c r="B7" s="7">
         <v>59029.599999999991</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>1049.3</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>620.1</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>3781.6</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <v>2495.4</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="7">
         <v>5081.6000000000004</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <v>3794.9</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="7">
         <v>3558.5</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="7">
         <v>5437.2</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="7">
         <v>246.2</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="7">
         <v>784.6</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="7">
         <v>937.4</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="7">
         <v>1845.8</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="7">
         <v>1024.3</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="7">
         <v>1635.9</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="7">
         <v>2389.8000000000002</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="7">
         <v>3647.3</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="7">
         <v>1832.5</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="7">
         <v>2528.1999999999998</v>
       </c>
-      <c r="U7" s="9">
+      <c r="U7" s="7">
         <v>999.1</v>
       </c>
-      <c r="V7" s="9">
+      <c r="V7" s="7">
         <v>1978.6</v>
       </c>
-      <c r="W7" s="9">
+      <c r="W7" s="7">
         <v>219</v>
       </c>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9">
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7">
         <v>3112.7</v>
       </c>
-      <c r="Z7" s="9">
+      <c r="Z7" s="7">
         <v>1422.6</v>
       </c>
-      <c r="AA7" s="9">
+      <c r="AA7" s="7">
         <v>1665.5</v>
       </c>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9">
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7">
         <v>1825.9</v>
       </c>
-      <c r="AD7" s="9">
+      <c r="AD7" s="7">
         <v>2219.1999999999998</v>
       </c>
-      <c r="AE7" s="9">
+      <c r="AE7" s="7">
         <v>1094.8</v>
       </c>
-      <c r="AF7" s="9">
+      <c r="AF7" s="7">
         <v>459.1</v>
       </c>
-      <c r="AG7" s="10">
+      <c r="AG7" s="8">
         <v>1342.5</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
-        <v>35064</v>
+    <row r="8" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>1995</v>
       </c>
       <c r="B8" s="2">
         <v>62388.5</v>
@@ -1630,403 +1631,403 @@
         <v>1342.5</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
-        <v>35430</v>
-      </c>
-      <c r="B9" s="6">
+    <row r="9" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>1996</v>
+      </c>
+      <c r="B9" s="5">
         <v>64931.399999999994</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>1096.2</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>643.20000000000005</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>4154.1000000000004</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>2650.4</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>6027.7</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>3805.2</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>3551</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>5406.8</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>255.7</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>788.6</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>938.1</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <v>2190.1</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="5">
         <v>1025.4000000000001</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <v>2347.4</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="5">
         <v>2691</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="5">
         <v>3712.3999999999996</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="5">
         <v>2198.8000000000002</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="5">
         <v>2540.1999999999998</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="5">
         <v>1975.5</v>
       </c>
-      <c r="V9" s="6">
+      <c r="V9" s="5">
         <v>2303.3000000000002</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="5">
         <v>219</v>
       </c>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6">
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5">
         <v>3112.7</v>
       </c>
-      <c r="Z9" s="6">
+      <c r="Z9" s="5">
         <v>1422.7</v>
       </c>
-      <c r="AA9" s="6">
+      <c r="AA9" s="5">
         <v>1665.5</v>
       </c>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6">
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5">
         <v>2203.3000000000002</v>
       </c>
-      <c r="AD9" s="6">
+      <c r="AD9" s="5">
         <v>2322.3000000000002</v>
       </c>
-      <c r="AE9" s="6">
+      <c r="AE9" s="5">
         <v>1094.8</v>
       </c>
-      <c r="AF9" s="6">
+      <c r="AF9" s="5">
         <v>785.3</v>
       </c>
-      <c r="AG9" s="7">
+      <c r="AG9" s="6">
         <v>1804.7</v>
       </c>
     </row>
-    <row r="10" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
-        <v>35795</v>
-      </c>
-      <c r="B10" s="9">
+    <row r="10" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>1997</v>
+      </c>
+      <c r="B10" s="7">
         <v>65969.5</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <v>1098.2</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <v>643.20000000000005</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>4167.2</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="7">
         <v>2668.9</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="7">
         <v>6032.9</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="7">
         <v>3806.9</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="7">
         <v>3551</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="7">
         <v>5411.9</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="7">
         <v>243.6</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="7">
         <v>788.6</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="7">
         <v>955.7</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="7">
         <v>2207.5</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="7">
         <v>1068.2</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="7">
         <v>2355.9</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="7">
         <v>2727.4</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="7">
         <v>3808.8999999999996</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="7">
         <v>2198.6</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" s="7">
         <v>2540.1999999999998</v>
       </c>
-      <c r="U10" s="9">
+      <c r="U10" s="7">
         <v>1979.6</v>
       </c>
-      <c r="V10" s="9">
+      <c r="V10" s="7">
         <v>2551.1</v>
       </c>
-      <c r="W10" s="9">
+      <c r="W10" s="7">
         <v>219</v>
       </c>
-      <c r="X10" s="9">
+      <c r="X10" s="7">
         <v>553.6</v>
       </c>
-      <c r="Y10" s="9">
+      <c r="Y10" s="7">
         <v>2558.5</v>
       </c>
-      <c r="Z10" s="9">
+      <c r="Z10" s="7">
         <v>1639.6</v>
       </c>
-      <c r="AA10" s="9">
+      <c r="AA10" s="7">
         <v>1970.1000000000001</v>
       </c>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9">
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7">
         <v>2221</v>
       </c>
-      <c r="AD10" s="9">
+      <c r="AD10" s="7">
         <v>2322.3000000000002</v>
       </c>
-      <c r="AE10" s="9">
+      <c r="AE10" s="7">
         <v>1094.8</v>
       </c>
-      <c r="AF10" s="9">
+      <c r="AF10" s="7">
         <v>782.5</v>
       </c>
-      <c r="AG10" s="10">
+      <c r="AG10" s="8">
         <v>1803.6000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
-        <v>36160</v>
-      </c>
-      <c r="B11" s="9">
+    <row r="11" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>1998</v>
+      </c>
+      <c r="B11" s="7">
         <v>66429.5</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>1097.9000000000001</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>644.20000000000005</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <v>4009.1</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="7">
         <v>2551.9</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="7">
         <v>6032.1</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="7">
         <v>3778.1000000000004</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="7">
         <v>3551</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="7">
         <v>5440</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="7">
         <v>248.2</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="7">
         <v>808.4</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="7">
         <v>1206.1000000000001</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="7">
         <v>2309.6999999999998</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="7">
         <v>1380.9</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="7">
         <v>2243.6999999999998</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="7">
         <v>2664.4</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="7">
         <v>3665.8</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="7">
         <v>2209.6</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11" s="7">
         <v>2803.1</v>
       </c>
-      <c r="U11" s="9">
+      <c r="U11" s="7">
         <v>1970.1</v>
       </c>
-      <c r="V11" s="9">
+      <c r="V11" s="7">
         <v>2738.4</v>
       </c>
-      <c r="W11" s="9">
+      <c r="W11" s="7">
         <v>219</v>
       </c>
-      <c r="X11" s="9">
+      <c r="X11" s="7">
         <v>626.29999999999995</v>
       </c>
-      <c r="Y11" s="9">
+      <c r="Y11" s="7">
         <v>2449.6</v>
       </c>
-      <c r="Z11" s="9">
+      <c r="Z11" s="7">
         <v>1647.5</v>
       </c>
-      <c r="AA11" s="9">
+      <c r="AA11" s="7">
         <v>1910.6</v>
       </c>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9">
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7">
         <v>2221.6</v>
       </c>
-      <c r="AD11" s="9">
+      <c r="AD11" s="7">
         <v>2322.1999999999998</v>
       </c>
-      <c r="AE11" s="9">
+      <c r="AE11" s="7">
         <v>1091.7</v>
       </c>
-      <c r="AF11" s="9">
+      <c r="AF11" s="7">
         <v>782.5</v>
       </c>
-      <c r="AG11" s="10">
+      <c r="AG11" s="8">
         <v>1806.4</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8">
-        <v>36525</v>
-      </c>
-      <c r="B12" s="9">
+    <row r="12" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>1999</v>
+      </c>
+      <c r="B12" s="7">
         <v>67393.899999999994</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>1170.0999999999999</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>647.20000000000005</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <v>3992.3</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="7">
         <v>2686.8</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="7">
         <v>5966.5</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="7">
         <v>3777.5</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="7">
         <v>3571.9</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="7">
         <v>5505.3</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="7">
         <v>259.5</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="7">
         <v>897.7</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="7">
         <v>1061.3</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="7">
         <v>2199.6999999999998</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="7">
         <v>1293.8</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="7">
         <v>2260.0000000000005</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="7">
         <v>2672.2</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="7">
         <v>3663.8999999999996</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="7">
         <v>2212.5</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="7">
         <v>2810.2</v>
       </c>
-      <c r="U12" s="9">
+      <c r="U12" s="7">
         <v>1823.4</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V12" s="7">
         <v>2737.5</v>
       </c>
-      <c r="W12" s="9">
+      <c r="W12" s="7">
         <v>219</v>
       </c>
-      <c r="X12" s="9">
+      <c r="X12" s="7">
         <v>626.4</v>
       </c>
-      <c r="Y12" s="9">
+      <c r="Y12" s="7">
         <v>2819.6</v>
       </c>
-      <c r="Z12" s="9">
+      <c r="Z12" s="7">
         <v>1653.5</v>
       </c>
-      <c r="AA12" s="9">
+      <c r="AA12" s="7">
         <v>2133.6</v>
       </c>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9">
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7">
         <v>2222.6999999999998</v>
       </c>
-      <c r="AD12" s="9">
+      <c r="AD12" s="7">
         <v>2322.8000000000002</v>
       </c>
-      <c r="AE12" s="9">
+      <c r="AE12" s="7">
         <v>1091.8</v>
       </c>
-      <c r="AF12" s="9">
+      <c r="AF12" s="7">
         <v>781.7</v>
       </c>
-      <c r="AG12" s="10">
+      <c r="AG12" s="8">
         <v>2313.5</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
-        <v>36891</v>
+    <row r="13" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>2000</v>
       </c>
       <c r="B13" s="2">
         <v>68649.600000000006</v>
@@ -2123,405 +2124,405 @@
         <v>2774.9</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8">
-        <v>37256</v>
-      </c>
-      <c r="B14" s="6">
+    <row r="14" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B14" s="5">
         <v>70057.200000000012</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>1160.5999999999999</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>697.2</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>4570.8999999999996</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>3050.2000000000003</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>6038.2</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>3782.7999999999997</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>3561.6</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>5503.2</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>256.5</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>897.7</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="5">
         <v>1220.8000000000002</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="5">
         <v>2220.4</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="5">
         <v>1434.8</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="5">
         <v>2265.3000000000002</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="5">
         <v>2855.4</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="5">
         <v>3593.9</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="5">
         <v>2212.5</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="5">
         <v>2757.8999999999996</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="5">
         <v>1923.1999999999998</v>
       </c>
-      <c r="V14" s="6">
+      <c r="V14" s="5">
         <v>2710.7000000000003</v>
       </c>
-      <c r="W14" s="6">
+      <c r="W14" s="5">
         <v>219</v>
       </c>
-      <c r="X14" s="6">
+      <c r="X14" s="5">
         <v>632.6</v>
       </c>
-      <c r="Y14" s="6">
+      <c r="Y14" s="5">
         <v>2852.2</v>
       </c>
-      <c r="Z14" s="6">
+      <c r="Z14" s="5">
         <v>1643.7</v>
       </c>
-      <c r="AA14" s="6">
+      <c r="AA14" s="5">
         <v>2151.4</v>
       </c>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6">
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5">
         <v>2873.8</v>
       </c>
-      <c r="AD14" s="6">
+      <c r="AD14" s="5">
         <v>2317.8000000000002</v>
       </c>
-      <c r="AE14" s="6">
+      <c r="AE14" s="5">
         <v>1091.9000000000001</v>
       </c>
-      <c r="AF14" s="6">
+      <c r="AF14" s="5">
         <v>786.6</v>
       </c>
-      <c r="AG14" s="7">
+      <c r="AG14" s="6">
         <v>2774.4</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5">
-        <v>37621</v>
-      </c>
-      <c r="B15" s="9">
+    <row r="15" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>2002</v>
+      </c>
+      <c r="B15" s="7">
         <v>71897.500000000015</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="7">
         <v>1138.0999999999999</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="7">
         <v>681.6</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="7">
         <v>4585.7</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="7">
         <v>3050.5000000000005</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="7">
         <v>6192.5999999999995</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="7">
         <v>3799.7999999999997</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="7">
         <v>3561.7999999999997</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="7">
         <v>5502.8</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="7">
         <v>256.5</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="7">
         <v>1390.6</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="7">
         <v>1249.9000000000001</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="7">
         <v>2219.7000000000003</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="7">
         <v>1453.9</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="7">
         <v>2368.6</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="7">
         <v>2855.4</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="7">
         <v>3593.9</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="7">
         <v>2388.9</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="7">
         <v>2758</v>
       </c>
-      <c r="U15" s="9">
+      <c r="U15" s="7">
         <v>2108.1999999999998</v>
       </c>
-      <c r="V15" s="9">
+      <c r="V15" s="7">
         <v>2745.2</v>
       </c>
-      <c r="W15" s="9">
+      <c r="W15" s="7">
         <v>213.9</v>
       </c>
-      <c r="X15" s="9">
+      <c r="X15" s="7">
         <v>718.2</v>
       </c>
-      <c r="Y15" s="9">
+      <c r="Y15" s="7">
         <v>2944</v>
       </c>
-      <c r="Z15" s="9">
+      <c r="Z15" s="7">
         <v>1892.8</v>
       </c>
-      <c r="AA15" s="9">
+      <c r="AA15" s="7">
         <v>2371.4</v>
       </c>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9">
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7">
         <v>2885.1000000000004</v>
       </c>
-      <c r="AD15" s="9">
+      <c r="AD15" s="7">
         <v>2317.4</v>
       </c>
-      <c r="AE15" s="9">
+      <c r="AE15" s="7">
         <v>1091.9000000000001</v>
       </c>
-      <c r="AF15" s="9">
+      <c r="AF15" s="7">
         <v>786.6</v>
       </c>
-      <c r="AG15" s="10">
+      <c r="AG15" s="8">
         <v>2774.5</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8">
-        <v>37986</v>
-      </c>
-      <c r="B16" s="9">
+    <row r="16" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>2003</v>
+      </c>
+      <c r="B16" s="7">
         <v>73002.060000000012</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="7">
         <v>1136.1000000000001</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="7">
         <v>666.3</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="7">
         <v>4744</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="7">
         <v>3137.5</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="7">
         <v>6202.6</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="7">
         <v>4173.9000000000005</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="7">
         <v>3561.7999999999997</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="7">
         <v>5483.7000000000007</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="7">
         <v>256.5</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="7">
         <v>1393.6000000000001</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="7">
         <v>1249.9000000000001</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="7">
         <v>2219.6999999999998</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="7">
         <v>1453.9</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="7">
         <v>2298.2000000000003</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="7">
         <v>3150.5</v>
       </c>
-      <c r="R16" s="9">
+      <c r="R16" s="7">
         <v>3654.2000000000003</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="7">
         <v>2388.5</v>
       </c>
-      <c r="T16" s="9">
+      <c r="T16" s="7">
         <v>2977.2599999999998</v>
       </c>
-      <c r="U16" s="9">
+      <c r="U16" s="7">
         <v>2112.5</v>
       </c>
-      <c r="V16" s="9">
+      <c r="V16" s="7">
         <v>2738</v>
       </c>
-      <c r="W16" s="9">
+      <c r="W16" s="7">
         <v>221.70000000000002</v>
       </c>
-      <c r="X16" s="9">
+      <c r="X16" s="7">
         <v>718.2</v>
       </c>
-      <c r="Y16" s="9">
+      <c r="Y16" s="7">
         <v>2961.8</v>
       </c>
-      <c r="Z16" s="9">
+      <c r="Z16" s="7">
         <v>1900.1</v>
       </c>
-      <c r="AA16" s="9">
+      <c r="AA16" s="7">
         <v>2340.3000000000002</v>
       </c>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9">
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7">
         <v>2892.3</v>
       </c>
-      <c r="AD16" s="9">
+      <c r="AD16" s="7">
         <v>2312.5</v>
       </c>
-      <c r="AE16" s="9">
+      <c r="AE16" s="7">
         <v>1091.8</v>
       </c>
-      <c r="AF16" s="9">
+      <c r="AF16" s="7">
         <v>791.4</v>
       </c>
-      <c r="AG16" s="10">
+      <c r="AG16" s="8">
         <v>2773.3</v>
       </c>
     </row>
-    <row r="17" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5">
-        <v>38352</v>
-      </c>
-      <c r="B17" s="9">
+    <row r="17" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>2004</v>
+      </c>
+      <c r="B17" s="7">
         <v>74237.5</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <v>1124.6000000000001</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="7">
         <v>661.6</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="7">
         <v>4671.5</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="7">
         <v>3143.5</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="7">
         <v>6187.3</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="7">
         <v>4174.2</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="7">
         <v>3561.7999999999997</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="7">
         <v>5499</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="7">
         <v>263.5</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="7">
         <v>1606.4</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="7">
         <v>1249.9000000000001</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="7">
         <v>2353.1</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="7">
         <v>1453.9</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="7">
         <v>2274.4</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="7">
         <v>3262.5</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17" s="7">
         <v>4156.2</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S17" s="7">
         <v>2486.6999999999998</v>
       </c>
-      <c r="T17" s="9">
+      <c r="T17" s="7">
         <v>2835.9</v>
       </c>
-      <c r="U17" s="9">
+      <c r="U17" s="7">
         <v>2181.4</v>
       </c>
-      <c r="V17" s="9">
+      <c r="V17" s="7">
         <v>2737.6</v>
       </c>
-      <c r="W17" s="9">
+      <c r="W17" s="7">
         <v>286</v>
       </c>
-      <c r="X17" s="9">
+      <c r="X17" s="7">
         <v>718.2</v>
       </c>
-      <c r="Y17" s="9">
+      <c r="Y17" s="7">
         <v>2958</v>
       </c>
-      <c r="Z17" s="9">
+      <c r="Z17" s="7">
         <v>1890.6</v>
       </c>
-      <c r="AA17" s="9">
+      <c r="AA17" s="7">
         <v>2328.0999999999995</v>
       </c>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9">
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7">
         <v>3131</v>
       </c>
-      <c r="AD17" s="9">
+      <c r="AD17" s="7">
         <v>2295.5</v>
       </c>
-      <c r="AE17" s="9">
+      <c r="AE17" s="7">
         <v>1090.3</v>
       </c>
-      <c r="AF17" s="9">
+      <c r="AF17" s="7">
         <v>791.9</v>
       </c>
-      <c r="AG17" s="10">
+      <c r="AG17" s="8">
         <v>2763.3</v>
       </c>
     </row>
-    <row r="18" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8">
-        <v>38717</v>
+    <row r="18" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>2005</v>
       </c>
       <c r="B18" s="2">
         <v>75438</v>
@@ -2618,413 +2619,413 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="19" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5">
-        <v>39082</v>
-      </c>
-      <c r="B19" s="6">
+    <row r="19" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>2006</v>
+      </c>
+      <c r="B19" s="5">
         <v>77084</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>1122</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>745</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>4818</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>3110</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>6383</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>4196</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>3555</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>5654</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>310</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <v>1616</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="5">
         <v>1279</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="5">
         <v>2387</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="5">
         <v>1613</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="5">
         <v>2424</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="5">
         <v>3329</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="5">
         <v>4039</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S19" s="5">
         <v>2527</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="5">
         <v>2906</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="5">
         <v>2168</v>
       </c>
-      <c r="V19" s="6">
+      <c r="V19" s="5">
         <v>2735</v>
       </c>
-      <c r="W19" s="6">
+      <c r="W19" s="5">
         <v>224</v>
       </c>
-      <c r="X19" s="6">
+      <c r="X19" s="5">
         <v>1262</v>
       </c>
-      <c r="Y19" s="6">
+      <c r="Y19" s="5">
         <v>2986</v>
       </c>
-      <c r="Z19" s="6">
+      <c r="Z19" s="5">
         <v>2014</v>
       </c>
-      <c r="AA19" s="6">
+      <c r="AA19" s="5">
         <v>2310</v>
       </c>
-      <c r="AB19" s="6">
+      <c r="AB19" s="5">
         <v>550</v>
       </c>
-      <c r="AC19" s="6">
+      <c r="AC19" s="5">
         <v>3185</v>
       </c>
-      <c r="AD19" s="6">
+      <c r="AD19" s="5">
         <v>2435</v>
       </c>
-      <c r="AE19" s="6">
+      <c r="AE19" s="5">
         <v>1652</v>
       </c>
-      <c r="AF19" s="6">
+      <c r="AF19" s="5">
         <v>790</v>
       </c>
-      <c r="AG19" s="7">
+      <c r="AG19" s="6">
         <v>2761</v>
       </c>
     </row>
-    <row r="20" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8">
-        <v>39447</v>
-      </c>
-      <c r="B20" s="9">
+    <row r="20" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>2007</v>
+      </c>
+      <c r="B20" s="7">
         <v>77966</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="7">
         <v>1119.9000000000001</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="7">
         <v>694.2</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="7">
         <v>4837.8</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="7">
         <v>3114.5000000000005</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="7">
         <v>6694.2</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="7">
         <v>4200.8</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="7">
         <v>3622.4</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="7">
         <v>5755.2000000000007</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="7">
         <v>331.2</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="7">
         <v>1618.8</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="7">
         <v>1319.3</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="7">
         <v>2387</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O20" s="7">
         <v>1616.3</v>
       </c>
-      <c r="P20" s="9">
+      <c r="P20" s="7">
         <v>2566.4</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="Q20" s="7">
         <v>3302.2</v>
       </c>
-      <c r="R20" s="9">
+      <c r="R20" s="7">
         <v>4041.7000000000003</v>
       </c>
-      <c r="S20" s="9">
+      <c r="S20" s="7">
         <v>2565</v>
       </c>
-      <c r="T20" s="9">
+      <c r="T20" s="7">
         <v>2899.1</v>
       </c>
-      <c r="U20" s="9">
+      <c r="U20" s="7">
         <v>2174.8000000000002</v>
       </c>
-      <c r="V20" s="9">
+      <c r="V20" s="7">
         <v>2734.2000000000003</v>
       </c>
-      <c r="W20" s="9">
+      <c r="W20" s="7">
         <v>388.4</v>
       </c>
-      <c r="X20" s="9">
+      <c r="X20" s="7">
         <v>1290.5999999999999</v>
       </c>
-      <c r="Y20" s="9">
+      <c r="Y20" s="7">
         <v>2999.4</v>
       </c>
-      <c r="Z20" s="9">
+      <c r="Z20" s="7">
         <v>2011.6</v>
       </c>
-      <c r="AA20" s="9">
+      <c r="AA20" s="7">
         <v>2308.4</v>
       </c>
-      <c r="AB20" s="9">
+      <c r="AB20" s="7">
         <v>550</v>
       </c>
-      <c r="AC20" s="9">
+      <c r="AC20" s="7">
         <v>3185.1000000000004</v>
       </c>
-      <c r="AD20" s="9">
+      <c r="AD20" s="7">
         <v>2435.1999999999998</v>
       </c>
-      <c r="AE20" s="9">
+      <c r="AE20" s="7">
         <v>1652.4</v>
       </c>
-      <c r="AF20" s="9">
+      <c r="AF20" s="7">
         <v>789.4</v>
       </c>
-      <c r="AG20" s="9">
+      <c r="AG20" s="7">
         <v>2760.5</v>
       </c>
     </row>
-    <row r="21" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5">
-        <v>39813</v>
-      </c>
-      <c r="B21" s="9">
+    <row r="21" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>2008</v>
+      </c>
+      <c r="B21" s="7">
         <v>79687.281999999992</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="7">
         <v>1166.5490000000002</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="7">
         <v>764.29599999999994</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="7">
         <v>4853.4520000000002</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="7">
         <v>3323.752</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="7">
         <v>6840.34</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="7">
         <v>4194.6790000000001</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="7">
         <v>3828.5640000000003</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="7">
         <v>5755.2000000000007</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="7">
         <v>316.09999999999997</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="7">
         <v>1656.982</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="7">
         <v>1319.327</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="7">
         <v>2871.0200000000004</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O21" s="7">
         <v>1618.4209999999998</v>
       </c>
-      <c r="P21" s="9">
+      <c r="P21" s="7">
         <v>2650.4929999999999</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="Q21" s="7">
         <v>3633.2979999999998</v>
       </c>
-      <c r="R21" s="9">
+      <c r="R21" s="7">
         <v>4041.9360000000001</v>
       </c>
-      <c r="S21" s="9">
+      <c r="S21" s="7">
         <v>2710.9660000000003</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T21" s="7">
         <v>2894.7779999999998</v>
       </c>
-      <c r="U21" s="9">
+      <c r="U21" s="7">
         <v>2164.7550000000001</v>
       </c>
-      <c r="V21" s="9">
+      <c r="V21" s="7">
         <v>2731.36</v>
       </c>
-      <c r="W21" s="9">
+      <c r="W21" s="7">
         <v>387.29199999999997</v>
       </c>
-      <c r="X21" s="9">
+      <c r="X21" s="7">
         <v>1290.5189999999998</v>
       </c>
-      <c r="Y21" s="9">
+      <c r="Y21" s="7">
         <v>3006.1040000000003</v>
       </c>
-      <c r="Z21" s="9">
+      <c r="Z21" s="7">
         <v>1962.248</v>
       </c>
-      <c r="AA21" s="9">
+      <c r="AA21" s="7">
         <v>2308.7620000000002</v>
       </c>
-      <c r="AB21" s="9">
+      <c r="AB21" s="7">
         <v>526</v>
       </c>
-      <c r="AC21" s="9">
+      <c r="AC21" s="7">
         <v>3186.3999999999996</v>
       </c>
-      <c r="AD21" s="9">
+      <c r="AD21" s="7">
         <v>2435.3989999999999</v>
       </c>
-      <c r="AE21" s="9">
+      <c r="AE21" s="7">
         <v>1676.4</v>
       </c>
-      <c r="AF21" s="9">
+      <c r="AF21" s="7">
         <v>811.38499999999999</v>
       </c>
-      <c r="AG21" s="9">
+      <c r="AG21" s="7">
         <v>2760.5050000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8">
-        <v>40178</v>
-      </c>
-      <c r="B22" s="9">
+    <row r="22" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>2009</v>
+      </c>
+      <c r="B22" s="7">
         <v>85517.8</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="7">
         <v>1169.4590000000001</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="7">
         <v>781.45600000000002</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="7">
         <v>4880.2520000000004</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="7">
         <v>3536.2940000000003</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="7">
         <v>8074.24</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="7">
         <v>4229.3220000000001</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="7">
         <v>3913.5550000000003</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="7">
         <v>5756.1</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="7">
         <v>317.7</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="7">
         <v>1655.5309999999999</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="7">
         <v>1678.2439999999999</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="7">
         <v>2849.8540000000003</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O22" s="7">
         <v>2109.7359999999999</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22" s="7">
         <v>2712.393</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="Q22" s="7">
         <v>3685.68</v>
       </c>
-      <c r="R22" s="9">
+      <c r="R22" s="7">
         <v>3949.2709999999997</v>
       </c>
-      <c r="S22" s="9">
+      <c r="S22" s="7">
         <v>2980.27</v>
       </c>
-      <c r="T22" s="9">
+      <c r="T22" s="7">
         <v>3692.9949999999999</v>
       </c>
-      <c r="U22" s="9">
+      <c r="U22" s="7">
         <v>2478.5990000000006</v>
       </c>
-      <c r="V22" s="9">
+      <c r="V22" s="7">
         <v>3125.9680000000003</v>
       </c>
-      <c r="W22" s="9">
+      <c r="W22" s="7">
         <v>387.29199999999997</v>
       </c>
-      <c r="X22" s="9">
+      <c r="X22" s="7">
         <v>1317.6409999999998</v>
       </c>
-      <c r="Y22" s="9">
+      <c r="Y22" s="7">
         <v>3257.9029999999998</v>
       </c>
-      <c r="Z22" s="9">
+      <c r="Z22" s="7">
         <v>1982.605</v>
       </c>
-      <c r="AA22" s="9">
+      <c r="AA22" s="7">
         <v>2474.73</v>
       </c>
-      <c r="AB22" s="9">
+      <c r="AB22" s="7">
         <v>525.54700000000003</v>
       </c>
-      <c r="AC22" s="9">
+      <c r="AC22" s="7">
         <v>3319.5</v>
       </c>
-      <c r="AD22" s="9">
+      <c r="AD22" s="7">
         <v>2435.355</v>
       </c>
-      <c r="AE22" s="9">
+      <c r="AE22" s="7">
         <v>1676.8969999999999</v>
       </c>
-      <c r="AF22" s="9">
+      <c r="AF22" s="7">
         <v>889.98500000000001</v>
       </c>
-      <c r="AG22" s="10">
+      <c r="AG22" s="8">
         <v>3673.4049999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5">
-        <v>40543</v>
+    <row r="23" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>2010</v>
       </c>
       <c r="B23" s="2">
         <v>91178.5</v>
@@ -3123,311 +3124,312 @@
         <v>4228.835</v>
       </c>
     </row>
-    <row r="24" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8">
-        <v>40908</v>
-      </c>
-      <c r="B24" s="6">
+    <row r="24" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>2011</v>
+      </c>
+      <c r="B24" s="5">
         <v>93249.600000000006</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>1228.4000000000001</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>866.9</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>5170.5</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>3773.6</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>9161.7999999999993</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <v>4302.3</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <v>3988.1</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <v>5945.3</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>461.3</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="5">
         <v>2349.6</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="5">
         <v>1779.1</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="5">
         <v>3120.8</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="5">
         <v>2110.3000000000002</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="5">
         <v>2834.5</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="Q24" s="5">
         <v>4200.3</v>
       </c>
-      <c r="R24" s="6">
+      <c r="R24" s="5">
         <v>4261.1000000000004</v>
       </c>
-      <c r="S24" s="6">
+      <c r="S24" s="5">
         <v>3354.9</v>
       </c>
-      <c r="T24" s="6">
+      <c r="T24" s="5">
         <v>3696.3</v>
       </c>
-      <c r="U24" s="6">
+      <c r="U24" s="5">
         <v>2832.1</v>
       </c>
-      <c r="V24" s="6">
+      <c r="V24" s="5">
         <v>3194.2</v>
       </c>
-      <c r="W24" s="6">
+      <c r="W24" s="5">
         <v>693.7</v>
       </c>
-      <c r="X24" s="6">
+      <c r="X24" s="5">
         <v>1373.4</v>
       </c>
-      <c r="Y24" s="6">
+      <c r="Y24" s="5">
         <v>3516.4</v>
       </c>
-      <c r="Z24" s="6">
+      <c r="Z24" s="5">
         <v>2070</v>
       </c>
-      <c r="AA24" s="6">
+      <c r="AA24" s="5">
         <v>2491.3000000000002</v>
       </c>
-      <c r="AB24" s="6">
+      <c r="AB24" s="5">
         <v>531.5</v>
       </c>
-      <c r="AC24" s="6">
+      <c r="AC24" s="5">
         <v>4083.4</v>
       </c>
-      <c r="AD24" s="6">
+      <c r="AD24" s="5">
         <v>2440.9</v>
       </c>
-      <c r="AE24" s="6">
+      <c r="AE24" s="5">
         <v>1857.6</v>
       </c>
-      <c r="AF24" s="6">
+      <c r="AF24" s="5">
         <v>1239.5999999999999</v>
       </c>
-      <c r="AG24" s="7">
+      <c r="AG24" s="6">
         <v>4320.3999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5">
-        <v>41274</v>
-      </c>
-      <c r="B25" s="9">
+    <row r="25" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>2012</v>
+      </c>
+      <c r="B25" s="7">
         <v>97625.324000000037</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="7">
         <v>1276.2339999999999</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="7">
         <v>867.69799999999987</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="7">
         <v>5630.2389999999996</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="7">
         <v>3774.4799999999996</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="7">
         <v>9474.3449999999993</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="7">
         <v>5006.4120000000003</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="7">
         <v>4398.357</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="7">
         <v>6021.79</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="7">
         <v>465.9</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="7">
         <v>2354.6109999999999</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="7">
         <v>1779.1000000000001</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="7">
         <v>3259.8040000000001</v>
       </c>
-      <c r="O25" s="9">
+      <c r="O25" s="7">
         <v>2255.1390000000001</v>
       </c>
-      <c r="P25" s="9">
+      <c r="P25" s="7">
         <v>2834.511</v>
       </c>
-      <c r="Q25" s="9">
+      <c r="Q25" s="7">
         <v>4288.0560000000005</v>
       </c>
-      <c r="R25" s="9">
+      <c r="R25" s="7">
         <v>4890.3389999999999</v>
       </c>
-      <c r="S25" s="9">
+      <c r="S25" s="7">
         <v>3814.3429999999998</v>
       </c>
-      <c r="T25" s="9">
+      <c r="T25" s="7">
         <v>3828.4090000000001</v>
       </c>
-      <c r="U25" s="9">
+      <c r="U25" s="7">
         <v>2846.0880000000002</v>
       </c>
-      <c r="V25" s="9">
+      <c r="V25" s="7">
         <v>3194.4409999999998</v>
       </c>
-      <c r="W25" s="9">
+      <c r="W25" s="7">
         <v>693.7</v>
       </c>
-      <c r="X25" s="9">
+      <c r="X25" s="7">
         <v>1451.6969999999999</v>
       </c>
-      <c r="Y25" s="9">
+      <c r="Y25" s="7">
         <v>3533.4520000000002</v>
       </c>
-      <c r="Z25" s="9">
+      <c r="Z25" s="7">
         <v>2057.8470000000002</v>
       </c>
-      <c r="AA25" s="9">
+      <c r="AA25" s="7">
         <v>2619.4070000000002</v>
       </c>
-      <c r="AB25" s="9">
+      <c r="AB25" s="7">
         <v>531.54700000000003</v>
       </c>
-      <c r="AC25" s="9">
+      <c r="AC25" s="7">
         <v>4093.4600000000005</v>
       </c>
-      <c r="AD25" s="9">
+      <c r="AD25" s="7">
         <v>2487.0639999999999</v>
       </c>
-      <c r="AE25" s="9">
+      <c r="AE25" s="7">
         <v>1857.645</v>
       </c>
-      <c r="AF25" s="9">
+      <c r="AF25" s="7">
         <v>1289.479</v>
       </c>
-      <c r="AG25" s="10">
+      <c r="AG25" s="8">
         <v>4749.7299999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8">
-        <v>41639</v>
-      </c>
-      <c r="B26" s="9">
+    <row r="26" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>2013</v>
+      </c>
+      <c r="B26" s="7">
         <v>103144.6</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="7">
         <v>1276.5999999999999</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="7">
         <v>963.5</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="7">
         <v>6255.5</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="7">
         <v>3786.4</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="7">
         <v>10203.299999999999</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="7">
         <v>5104.3999999999996</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="7">
         <v>4397.2</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="7">
         <v>6021.8</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="7">
         <v>465</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="7">
         <v>2599.6999999999998</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="7">
         <v>2044.5</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="7">
         <v>3513.1</v>
       </c>
-      <c r="O26" s="9">
+      <c r="O26" s="7">
         <v>2747.8</v>
       </c>
-      <c r="P26" s="9">
+      <c r="P26" s="7">
         <v>3084.3</v>
       </c>
-      <c r="Q26" s="9">
+      <c r="Q26" s="7">
         <v>4288.1000000000004</v>
       </c>
-      <c r="R26" s="9">
+      <c r="R26" s="7">
         <v>4890.3999999999996</v>
       </c>
-      <c r="S26" s="9">
+      <c r="S26" s="7">
         <v>3929.6</v>
       </c>
-      <c r="T26" s="9">
+      <c r="T26" s="7">
         <v>4026.6</v>
       </c>
-      <c r="U26" s="9">
+      <c r="U26" s="7">
         <v>3471.7</v>
       </c>
-      <c r="V26" s="9">
+      <c r="V26" s="7">
         <v>4013.4</v>
       </c>
-      <c r="W26" s="9">
+      <c r="W26" s="7">
         <v>693.7</v>
       </c>
-      <c r="X26" s="9">
+      <c r="X26" s="7">
         <v>1680.1</v>
       </c>
-      <c r="Y26" s="9">
+      <c r="Y26" s="7">
         <v>3539.4</v>
       </c>
-      <c r="Z26" s="9">
+      <c r="Z26" s="7">
         <v>2093</v>
       </c>
-      <c r="AA26" s="9">
+      <c r="AA26" s="7">
         <v>2618.8000000000002</v>
       </c>
-      <c r="AB26" s="9">
+      <c r="AB26" s="7">
         <v>531.5</v>
       </c>
-      <c r="AC26" s="9">
+      <c r="AC26" s="7">
         <v>4421.1000000000004</v>
       </c>
-      <c r="AD26" s="9">
+      <c r="AD26" s="7">
         <v>2595.9</v>
       </c>
-      <c r="AE26" s="9">
+      <c r="AE26" s="7">
         <v>1857.6</v>
       </c>
-      <c r="AF26" s="9">
+      <c r="AF26" s="7">
         <v>1289.5</v>
       </c>
-      <c r="AG26" s="10">
+      <c r="AG26" s="8">
         <v>4741.3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RailIndexPrj/3-2 全国铁路分地区营业里程.xlsx
+++ b/RailIndexPrj/3-2 全国铁路分地区营业里程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -303,9 +303,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -491,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -505,11 +504,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -527,9 +532,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -838,117 +840,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AB1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AD1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AE1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AF1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AG1" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1049,9 +1048,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>1990</v>
+    <row r="3" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <v>33238</v>
       </c>
       <c r="B3" s="2">
         <v>57899.199999999997</v>
@@ -1146,397 +1145,397 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>1991</v>
-      </c>
-      <c r="B4" s="5">
+    <row r="4" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>33603</v>
+      </c>
+      <c r="B4" s="6">
         <v>57825.5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>1038.0999999999999</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>567.9</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>3629</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>2438.9</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>5091.8999999999996</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>3769.7</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>3479.5</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <v>5429</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <v>259</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="6">
         <v>748</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="6">
         <v>871</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="6">
         <v>1633.1</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="6">
         <v>1015</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="6">
         <v>1637</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="6">
         <v>2218</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="6">
         <v>3504.9</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="6">
         <v>1821</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="6">
         <v>2531.8000000000002</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="6">
         <v>1000.9</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="6">
         <v>1974.9</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="6">
         <v>219</v>
       </c>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5">
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6">
         <v>2974</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="Z4" s="6">
         <v>1419</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AA4" s="6">
         <v>1642.9</v>
       </c>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5">
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6">
         <v>1826</v>
       </c>
-      <c r="AD4" s="5">
+      <c r="AD4" s="6">
         <v>2219</v>
       </c>
-      <c r="AE4" s="5">
+      <c r="AE4" s="6">
         <v>1095</v>
       </c>
-      <c r="AF4" s="5">
+      <c r="AF4" s="6">
         <v>429</v>
       </c>
-      <c r="AG4" s="6">
+      <c r="AG4" s="7">
         <v>1343</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>1992</v>
-      </c>
-      <c r="B5" s="7">
+    <row r="5" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>33969</v>
+      </c>
+      <c r="B5" s="9">
         <v>58075.9</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
         <v>1047.4000000000001</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="9">
         <v>582.1</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="9">
         <v>3616.1</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="9">
         <v>2437.5</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="9">
         <v>5082.8</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="9">
         <v>3776.7</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="9">
         <v>3479.2</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="9">
         <v>5482</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="9">
         <v>235.2</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="9">
         <v>744.4</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="9">
         <v>902.9</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="9">
         <v>1761</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="9">
         <v>1015.3</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="9">
         <v>1636</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="9">
         <v>2223.6999999999998</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="9">
         <v>3533.1</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="9">
         <v>1823.3</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="9">
         <v>2519.9</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="9">
         <v>1002.6999999999999</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V5" s="9">
         <v>1978.6999999999998</v>
       </c>
-      <c r="W5" s="7">
+      <c r="W5" s="9">
         <v>219</v>
       </c>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7">
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9">
         <v>3031.6</v>
       </c>
-      <c r="Z5" s="7">
+      <c r="Z5" s="9">
         <v>1422.6</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AA5" s="9">
         <v>1610</v>
       </c>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7">
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9">
         <v>1826</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AD5" s="9">
         <v>2219.5</v>
       </c>
-      <c r="AE5" s="7">
+      <c r="AE5" s="9">
         <v>1094.7</v>
       </c>
-      <c r="AF5" s="7">
+      <c r="AF5" s="9">
         <v>428.5</v>
       </c>
-      <c r="AG5" s="8">
+      <c r="AG5" s="10">
         <v>1342.5</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>1993</v>
-      </c>
-      <c r="B6" s="7">
+    <row r="6" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>34334</v>
+      </c>
+      <c r="B6" s="9">
         <v>58602.499999999985</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="9">
         <v>1049.3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="9">
         <v>620.1</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="9">
         <v>3734.7</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="9">
         <v>2495.6999999999998</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="9">
         <v>5083.1000000000004</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="9">
         <v>3771.7</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="9">
         <v>3544.2</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="9">
         <v>5436.9</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="9">
         <v>247.1</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="9">
         <v>746.7</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="9">
         <v>902.9</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="9">
         <v>1761.2</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="9">
         <v>1015.3</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="9">
         <v>1637.5</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="9">
         <v>2362</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="9">
         <v>3503.2</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="9">
         <v>1832.5</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="9">
         <v>2526.1</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="9">
         <v>1003</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V6" s="9">
         <v>1990.6</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W6" s="9">
         <v>219</v>
       </c>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7">
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9">
         <v>3108.5</v>
       </c>
-      <c r="Z6" s="7">
+      <c r="Z6" s="9">
         <v>1410.7</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AA6" s="9">
         <v>1665.5</v>
       </c>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7">
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9">
         <v>1825.8</v>
       </c>
-      <c r="AD6" s="7">
+      <c r="AD6" s="9">
         <v>2219.5</v>
       </c>
-      <c r="AE6" s="7">
+      <c r="AE6" s="9">
         <v>1094.7</v>
       </c>
-      <c r="AF6" s="7">
+      <c r="AF6" s="9">
         <v>453.2</v>
       </c>
-      <c r="AG6" s="8">
+      <c r="AG6" s="10">
         <v>1342.5</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>1994</v>
-      </c>
-      <c r="B7" s="7">
+    <row r="7" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>34699</v>
+      </c>
+      <c r="B7" s="9">
         <v>59029.599999999991</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="9">
         <v>1049.3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="9">
         <v>620.1</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="9">
         <v>3781.6</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="9">
         <v>2495.4</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="9">
         <v>5081.6000000000004</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="9">
         <v>3794.9</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="9">
         <v>3558.5</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="9">
         <v>5437.2</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="9">
         <v>246.2</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="9">
         <v>784.6</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="9">
         <v>937.4</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="9">
         <v>1845.8</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="9">
         <v>1024.3</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="9">
         <v>1635.9</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="9">
         <v>2389.8000000000002</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="9">
         <v>3647.3</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="9">
         <v>1832.5</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="9">
         <v>2528.1999999999998</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="9">
         <v>999.1</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="9">
         <v>1978.6</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W7" s="9">
         <v>219</v>
       </c>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7">
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9">
         <v>3112.7</v>
       </c>
-      <c r="Z7" s="7">
+      <c r="Z7" s="9">
         <v>1422.6</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7" s="9">
         <v>1665.5</v>
       </c>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7">
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9">
         <v>1825.9</v>
       </c>
-      <c r="AD7" s="7">
+      <c r="AD7" s="9">
         <v>2219.1999999999998</v>
       </c>
-      <c r="AE7" s="7">
+      <c r="AE7" s="9">
         <v>1094.8</v>
       </c>
-      <c r="AF7" s="7">
+      <c r="AF7" s="9">
         <v>459.1</v>
       </c>
-      <c r="AG7" s="8">
+      <c r="AG7" s="10">
         <v>1342.5</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>1995</v>
+    <row r="8" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>35064</v>
       </c>
       <c r="B8" s="2">
         <v>62388.5</v>
@@ -1631,403 +1630,403 @@
         <v>1342.5</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>1996</v>
-      </c>
-      <c r="B9" s="5">
+    <row r="9" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <v>35430</v>
+      </c>
+      <c r="B9" s="6">
         <v>64931.399999999994</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>1096.2</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>643.20000000000005</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>4154.1000000000004</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <v>2650.4</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="6">
         <v>6027.7</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <v>3805.2</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="6">
         <v>3551</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="6">
         <v>5406.8</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="6">
         <v>255.7</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="6">
         <v>788.6</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>938.1</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="6">
         <v>2190.1</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="6">
         <v>1025.4000000000001</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="6">
         <v>2347.4</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="6">
         <v>2691</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="6">
         <v>3712.3999999999996</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="6">
         <v>2198.8000000000002</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="6">
         <v>2540.1999999999998</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="6">
         <v>1975.5</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="6">
         <v>2303.3000000000002</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9" s="6">
         <v>219</v>
       </c>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5">
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6">
         <v>3112.7</v>
       </c>
-      <c r="Z9" s="5">
+      <c r="Z9" s="6">
         <v>1422.7</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="AA9" s="6">
         <v>1665.5</v>
       </c>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5">
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6">
         <v>2203.3000000000002</v>
       </c>
-      <c r="AD9" s="5">
+      <c r="AD9" s="6">
         <v>2322.3000000000002</v>
       </c>
-      <c r="AE9" s="5">
+      <c r="AE9" s="6">
         <v>1094.8</v>
       </c>
-      <c r="AF9" s="5">
+      <c r="AF9" s="6">
         <v>785.3</v>
       </c>
-      <c r="AG9" s="6">
+      <c r="AG9" s="7">
         <v>1804.7</v>
       </c>
     </row>
-    <row r="10" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>1997</v>
-      </c>
-      <c r="B10" s="7">
+    <row r="10" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <v>35795</v>
+      </c>
+      <c r="B10" s="9">
         <v>65969.5</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="9">
         <v>1098.2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="9">
         <v>643.20000000000005</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="9">
         <v>4167.2</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="9">
         <v>2668.9</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="9">
         <v>6032.9</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="9">
         <v>3806.9</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="9">
         <v>3551</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="9">
         <v>5411.9</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="9">
         <v>243.6</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="9">
         <v>788.6</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="9">
         <v>955.7</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="9">
         <v>2207.5</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="9">
         <v>1068.2</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="9">
         <v>2355.9</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="9">
         <v>2727.4</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="9">
         <v>3808.8999999999996</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="9">
         <v>2198.6</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="9">
         <v>2540.1999999999998</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="9">
         <v>1979.6</v>
       </c>
-      <c r="V10" s="7">
+      <c r="V10" s="9">
         <v>2551.1</v>
       </c>
-      <c r="W10" s="7">
+      <c r="W10" s="9">
         <v>219</v>
       </c>
-      <c r="X10" s="7">
+      <c r="X10" s="9">
         <v>553.6</v>
       </c>
-      <c r="Y10" s="7">
+      <c r="Y10" s="9">
         <v>2558.5</v>
       </c>
-      <c r="Z10" s="7">
+      <c r="Z10" s="9">
         <v>1639.6</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AA10" s="9">
         <v>1970.1000000000001</v>
       </c>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7">
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9">
         <v>2221</v>
       </c>
-      <c r="AD10" s="7">
+      <c r="AD10" s="9">
         <v>2322.3000000000002</v>
       </c>
-      <c r="AE10" s="7">
+      <c r="AE10" s="9">
         <v>1094.8</v>
       </c>
-      <c r="AF10" s="7">
+      <c r="AF10" s="9">
         <v>782.5</v>
       </c>
-      <c r="AG10" s="8">
+      <c r="AG10" s="10">
         <v>1803.6000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>1998</v>
-      </c>
-      <c r="B11" s="7">
+    <row r="11" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>36160</v>
+      </c>
+      <c r="B11" s="9">
         <v>66429.5</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="9">
         <v>1097.9000000000001</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="9">
         <v>644.20000000000005</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="9">
         <v>4009.1</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="9">
         <v>2551.9</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="9">
         <v>6032.1</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="9">
         <v>3778.1000000000004</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="9">
         <v>3551</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="9">
         <v>5440</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="9">
         <v>248.2</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="9">
         <v>808.4</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="9">
         <v>1206.1000000000001</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="9">
         <v>2309.6999999999998</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="9">
         <v>1380.9</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="9">
         <v>2243.6999999999998</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="9">
         <v>2664.4</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="9">
         <v>3665.8</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="9">
         <v>2209.6</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="9">
         <v>2803.1</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="9">
         <v>1970.1</v>
       </c>
-      <c r="V11" s="7">
+      <c r="V11" s="9">
         <v>2738.4</v>
       </c>
-      <c r="W11" s="7">
+      <c r="W11" s="9">
         <v>219</v>
       </c>
-      <c r="X11" s="7">
+      <c r="X11" s="9">
         <v>626.29999999999995</v>
       </c>
-      <c r="Y11" s="7">
+      <c r="Y11" s="9">
         <v>2449.6</v>
       </c>
-      <c r="Z11" s="7">
+      <c r="Z11" s="9">
         <v>1647.5</v>
       </c>
-      <c r="AA11" s="7">
+      <c r="AA11" s="9">
         <v>1910.6</v>
       </c>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7">
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9">
         <v>2221.6</v>
       </c>
-      <c r="AD11" s="7">
+      <c r="AD11" s="9">
         <v>2322.1999999999998</v>
       </c>
-      <c r="AE11" s="7">
+      <c r="AE11" s="9">
         <v>1091.7</v>
       </c>
-      <c r="AF11" s="7">
+      <c r="AF11" s="9">
         <v>782.5</v>
       </c>
-      <c r="AG11" s="8">
+      <c r="AG11" s="10">
         <v>1806.4</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>1999</v>
-      </c>
-      <c r="B12" s="7">
+    <row r="12" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
+        <v>36525</v>
+      </c>
+      <c r="B12" s="9">
         <v>67393.899999999994</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="9">
         <v>1170.0999999999999</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="9">
         <v>647.20000000000005</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="9">
         <v>3992.3</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="9">
         <v>2686.8</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="9">
         <v>5966.5</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="9">
         <v>3777.5</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="9">
         <v>3571.9</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="9">
         <v>5505.3</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="9">
         <v>259.5</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="9">
         <v>897.7</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="9">
         <v>1061.3</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="9">
         <v>2199.6999999999998</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="9">
         <v>1293.8</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="9">
         <v>2260.0000000000005</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="9">
         <v>2672.2</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="9">
         <v>3663.8999999999996</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="9">
         <v>2212.5</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="9">
         <v>2810.2</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="9">
         <v>1823.4</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="9">
         <v>2737.5</v>
       </c>
-      <c r="W12" s="7">
+      <c r="W12" s="9">
         <v>219</v>
       </c>
-      <c r="X12" s="7">
+      <c r="X12" s="9">
         <v>626.4</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="Y12" s="9">
         <v>2819.6</v>
       </c>
-      <c r="Z12" s="7">
+      <c r="Z12" s="9">
         <v>1653.5</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AA12" s="9">
         <v>2133.6</v>
       </c>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7">
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9">
         <v>2222.6999999999998</v>
       </c>
-      <c r="AD12" s="7">
+      <c r="AD12" s="9">
         <v>2322.8000000000002</v>
       </c>
-      <c r="AE12" s="7">
+      <c r="AE12" s="9">
         <v>1091.8</v>
       </c>
-      <c r="AF12" s="7">
+      <c r="AF12" s="9">
         <v>781.7</v>
       </c>
-      <c r="AG12" s="8">
+      <c r="AG12" s="10">
         <v>2313.5</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>2000</v>
+    <row r="13" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <v>36891</v>
       </c>
       <c r="B13" s="2">
         <v>68649.600000000006</v>
@@ -2124,405 +2123,405 @@
         <v>2774.9</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>2001</v>
-      </c>
-      <c r="B14" s="5">
+    <row r="14" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
+        <v>37256</v>
+      </c>
+      <c r="B14" s="6">
         <v>70057.200000000012</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>1160.5999999999999</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <v>697.2</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <v>4570.8999999999996</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <v>3050.2000000000003</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="6">
         <v>6038.2</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="6">
         <v>3782.7999999999997</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="6">
         <v>3561.6</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="6">
         <v>5503.2</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="6">
         <v>256.5</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="6">
         <v>897.7</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="6">
         <v>1220.8000000000002</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="6">
         <v>2220.4</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="6">
         <v>1434.8</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="6">
         <v>2265.3000000000002</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="6">
         <v>2855.4</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="6">
         <v>3593.9</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14" s="6">
         <v>2212.5</v>
       </c>
-      <c r="T14" s="5">
+      <c r="T14" s="6">
         <v>2757.8999999999996</v>
       </c>
-      <c r="U14" s="5">
+      <c r="U14" s="6">
         <v>1923.1999999999998</v>
       </c>
-      <c r="V14" s="5">
+      <c r="V14" s="6">
         <v>2710.7000000000003</v>
       </c>
-      <c r="W14" s="5">
+      <c r="W14" s="6">
         <v>219</v>
       </c>
-      <c r="X14" s="5">
+      <c r="X14" s="6">
         <v>632.6</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="Y14" s="6">
         <v>2852.2</v>
       </c>
-      <c r="Z14" s="5">
+      <c r="Z14" s="6">
         <v>1643.7</v>
       </c>
-      <c r="AA14" s="5">
+      <c r="AA14" s="6">
         <v>2151.4</v>
       </c>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5">
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6">
         <v>2873.8</v>
       </c>
-      <c r="AD14" s="5">
+      <c r="AD14" s="6">
         <v>2317.8000000000002</v>
       </c>
-      <c r="AE14" s="5">
+      <c r="AE14" s="6">
         <v>1091.9000000000001</v>
       </c>
-      <c r="AF14" s="5">
+      <c r="AF14" s="6">
         <v>786.6</v>
       </c>
-      <c r="AG14" s="6">
+      <c r="AG14" s="7">
         <v>2774.4</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>2002</v>
-      </c>
-      <c r="B15" s="7">
+    <row r="15" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <v>37621</v>
+      </c>
+      <c r="B15" s="9">
         <v>71897.500000000015</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="9">
         <v>1138.0999999999999</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="9">
         <v>681.6</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="9">
         <v>4585.7</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="9">
         <v>3050.5000000000005</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="9">
         <v>6192.5999999999995</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="9">
         <v>3799.7999999999997</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="9">
         <v>3561.7999999999997</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="9">
         <v>5502.8</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="9">
         <v>256.5</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="9">
         <v>1390.6</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="9">
         <v>1249.9000000000001</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="9">
         <v>2219.7000000000003</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="9">
         <v>1453.9</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="9">
         <v>2368.6</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="9">
         <v>2855.4</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="9">
         <v>3593.9</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15" s="9">
         <v>2388.9</v>
       </c>
-      <c r="T15" s="7">
+      <c r="T15" s="9">
         <v>2758</v>
       </c>
-      <c r="U15" s="7">
+      <c r="U15" s="9">
         <v>2108.1999999999998</v>
       </c>
-      <c r="V15" s="7">
+      <c r="V15" s="9">
         <v>2745.2</v>
       </c>
-      <c r="W15" s="7">
+      <c r="W15" s="9">
         <v>213.9</v>
       </c>
-      <c r="X15" s="7">
+      <c r="X15" s="9">
         <v>718.2</v>
       </c>
-      <c r="Y15" s="7">
+      <c r="Y15" s="9">
         <v>2944</v>
       </c>
-      <c r="Z15" s="7">
+      <c r="Z15" s="9">
         <v>1892.8</v>
       </c>
-      <c r="AA15" s="7">
+      <c r="AA15" s="9">
         <v>2371.4</v>
       </c>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7">
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9">
         <v>2885.1000000000004</v>
       </c>
-      <c r="AD15" s="7">
+      <c r="AD15" s="9">
         <v>2317.4</v>
       </c>
-      <c r="AE15" s="7">
+      <c r="AE15" s="9">
         <v>1091.9000000000001</v>
       </c>
-      <c r="AF15" s="7">
+      <c r="AF15" s="9">
         <v>786.6</v>
       </c>
-      <c r="AG15" s="8">
+      <c r="AG15" s="10">
         <v>2774.5</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>2003</v>
-      </c>
-      <c r="B16" s="7">
+    <row r="16" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8">
+        <v>37986</v>
+      </c>
+      <c r="B16" s="9">
         <v>73002.060000000012</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="9">
         <v>1136.1000000000001</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="9">
         <v>666.3</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="9">
         <v>4744</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="9">
         <v>3137.5</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="9">
         <v>6202.6</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="9">
         <v>4173.9000000000005</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="9">
         <v>3561.7999999999997</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="9">
         <v>5483.7000000000007</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="9">
         <v>256.5</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="9">
         <v>1393.6000000000001</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="9">
         <v>1249.9000000000001</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="9">
         <v>2219.6999999999998</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="9">
         <v>1453.9</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="9">
         <v>2298.2000000000003</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="9">
         <v>3150.5</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="9">
         <v>3654.2000000000003</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="9">
         <v>2388.5</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T16" s="9">
         <v>2977.2599999999998</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U16" s="9">
         <v>2112.5</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="9">
         <v>2738</v>
       </c>
-      <c r="W16" s="7">
+      <c r="W16" s="9">
         <v>221.70000000000002</v>
       </c>
-      <c r="X16" s="7">
+      <c r="X16" s="9">
         <v>718.2</v>
       </c>
-      <c r="Y16" s="7">
+      <c r="Y16" s="9">
         <v>2961.8</v>
       </c>
-      <c r="Z16" s="7">
+      <c r="Z16" s="9">
         <v>1900.1</v>
       </c>
-      <c r="AA16" s="7">
+      <c r="AA16" s="9">
         <v>2340.3000000000002</v>
       </c>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7">
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9">
         <v>2892.3</v>
       </c>
-      <c r="AD16" s="7">
+      <c r="AD16" s="9">
         <v>2312.5</v>
       </c>
-      <c r="AE16" s="7">
+      <c r="AE16" s="9">
         <v>1091.8</v>
       </c>
-      <c r="AF16" s="7">
+      <c r="AF16" s="9">
         <v>791.4</v>
       </c>
-      <c r="AG16" s="8">
+      <c r="AG16" s="10">
         <v>2773.3</v>
       </c>
     </row>
-    <row r="17" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>2004</v>
-      </c>
-      <c r="B17" s="7">
+    <row r="17" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
+        <v>38352</v>
+      </c>
+      <c r="B17" s="9">
         <v>74237.5</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="9">
         <v>1124.6000000000001</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="9">
         <v>661.6</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="9">
         <v>4671.5</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="9">
         <v>3143.5</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="9">
         <v>6187.3</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="9">
         <v>4174.2</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="9">
         <v>3561.7999999999997</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="9">
         <v>5499</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="9">
         <v>263.5</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="9">
         <v>1606.4</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="9">
         <v>1249.9000000000001</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="9">
         <v>2353.1</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="9">
         <v>1453.9</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="9">
         <v>2274.4</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="9">
         <v>3262.5</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="9">
         <v>4156.2</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="9">
         <v>2486.6999999999998</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T17" s="9">
         <v>2835.9</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="9">
         <v>2181.4</v>
       </c>
-      <c r="V17" s="7">
+      <c r="V17" s="9">
         <v>2737.6</v>
       </c>
-      <c r="W17" s="7">
+      <c r="W17" s="9">
         <v>286</v>
       </c>
-      <c r="X17" s="7">
+      <c r="X17" s="9">
         <v>718.2</v>
       </c>
-      <c r="Y17" s="7">
+      <c r="Y17" s="9">
         <v>2958</v>
       </c>
-      <c r="Z17" s="7">
+      <c r="Z17" s="9">
         <v>1890.6</v>
       </c>
-      <c r="AA17" s="7">
+      <c r="AA17" s="9">
         <v>2328.0999999999995</v>
       </c>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7">
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9">
         <v>3131</v>
       </c>
-      <c r="AD17" s="7">
+      <c r="AD17" s="9">
         <v>2295.5</v>
       </c>
-      <c r="AE17" s="7">
+      <c r="AE17" s="9">
         <v>1090.3</v>
       </c>
-      <c r="AF17" s="7">
+      <c r="AF17" s="9">
         <v>791.9</v>
       </c>
-      <c r="AG17" s="8">
+      <c r="AG17" s="10">
         <v>2763.3</v>
       </c>
     </row>
-    <row r="18" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>2005</v>
+    <row r="18" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8">
+        <v>38717</v>
       </c>
       <c r="B18" s="2">
         <v>75438</v>
@@ -2619,413 +2618,413 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="19" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>2006</v>
-      </c>
-      <c r="B19" s="5">
+    <row r="19" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
+        <v>39082</v>
+      </c>
+      <c r="B19" s="6">
         <v>77084</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="6">
         <v>1122</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="6">
         <v>745</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="6">
         <v>4818</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="6">
         <v>3110</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="6">
         <v>6383</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="6">
         <v>4196</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="6">
         <v>3555</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="6">
         <v>5654</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="6">
         <v>310</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="6">
         <v>1616</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="6">
         <v>1279</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="6">
         <v>2387</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="6">
         <v>1613</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="6">
         <v>2424</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" s="6">
         <v>3329</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="6">
         <v>4039</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S19" s="6">
         <v>2527</v>
       </c>
-      <c r="T19" s="5">
+      <c r="T19" s="6">
         <v>2906</v>
       </c>
-      <c r="U19" s="5">
+      <c r="U19" s="6">
         <v>2168</v>
       </c>
-      <c r="V19" s="5">
+      <c r="V19" s="6">
         <v>2735</v>
       </c>
-      <c r="W19" s="5">
+      <c r="W19" s="6">
         <v>224</v>
       </c>
-      <c r="X19" s="5">
+      <c r="X19" s="6">
         <v>1262</v>
       </c>
-      <c r="Y19" s="5">
+      <c r="Y19" s="6">
         <v>2986</v>
       </c>
-      <c r="Z19" s="5">
+      <c r="Z19" s="6">
         <v>2014</v>
       </c>
-      <c r="AA19" s="5">
+      <c r="AA19" s="6">
         <v>2310</v>
       </c>
-      <c r="AB19" s="5">
+      <c r="AB19" s="6">
         <v>550</v>
       </c>
-      <c r="AC19" s="5">
+      <c r="AC19" s="6">
         <v>3185</v>
       </c>
-      <c r="AD19" s="5">
+      <c r="AD19" s="6">
         <v>2435</v>
       </c>
-      <c r="AE19" s="5">
+      <c r="AE19" s="6">
         <v>1652</v>
       </c>
-      <c r="AF19" s="5">
+      <c r="AF19" s="6">
         <v>790</v>
       </c>
-      <c r="AG19" s="6">
+      <c r="AG19" s="7">
         <v>2761</v>
       </c>
     </row>
-    <row r="20" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>2007</v>
-      </c>
-      <c r="B20" s="7">
+    <row r="20" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8">
+        <v>39447</v>
+      </c>
+      <c r="B20" s="9">
         <v>77966</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="9">
         <v>1119.9000000000001</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="9">
         <v>694.2</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="9">
         <v>4837.8</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="9">
         <v>3114.5000000000005</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="9">
         <v>6694.2</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="9">
         <v>4200.8</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="9">
         <v>3622.4</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="9">
         <v>5755.2000000000007</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="9">
         <v>331.2</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="9">
         <v>1618.8</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="9">
         <v>1319.3</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="9">
         <v>2387</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="9">
         <v>1616.3</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="9">
         <v>2566.4</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="Q20" s="9">
         <v>3302.2</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R20" s="9">
         <v>4041.7000000000003</v>
       </c>
-      <c r="S20" s="7">
+      <c r="S20" s="9">
         <v>2565</v>
       </c>
-      <c r="T20" s="7">
+      <c r="T20" s="9">
         <v>2899.1</v>
       </c>
-      <c r="U20" s="7">
+      <c r="U20" s="9">
         <v>2174.8000000000002</v>
       </c>
-      <c r="V20" s="7">
+      <c r="V20" s="9">
         <v>2734.2000000000003</v>
       </c>
-      <c r="W20" s="7">
+      <c r="W20" s="9">
         <v>388.4</v>
       </c>
-      <c r="X20" s="7">
+      <c r="X20" s="9">
         <v>1290.5999999999999</v>
       </c>
-      <c r="Y20" s="7">
+      <c r="Y20" s="9">
         <v>2999.4</v>
       </c>
-      <c r="Z20" s="7">
+      <c r="Z20" s="9">
         <v>2011.6</v>
       </c>
-      <c r="AA20" s="7">
+      <c r="AA20" s="9">
         <v>2308.4</v>
       </c>
-      <c r="AB20" s="7">
+      <c r="AB20" s="9">
         <v>550</v>
       </c>
-      <c r="AC20" s="7">
+      <c r="AC20" s="9">
         <v>3185.1000000000004</v>
       </c>
-      <c r="AD20" s="7">
+      <c r="AD20" s="9">
         <v>2435.1999999999998</v>
       </c>
-      <c r="AE20" s="7">
+      <c r="AE20" s="9">
         <v>1652.4</v>
       </c>
-      <c r="AF20" s="7">
+      <c r="AF20" s="9">
         <v>789.4</v>
       </c>
-      <c r="AG20" s="7">
+      <c r="AG20" s="9">
         <v>2760.5</v>
       </c>
     </row>
-    <row r="21" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>2008</v>
-      </c>
-      <c r="B21" s="7">
+    <row r="21" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5">
+        <v>39813</v>
+      </c>
+      <c r="B21" s="9">
         <v>79687.281999999992</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="9">
         <v>1166.5490000000002</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="9">
         <v>764.29599999999994</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="9">
         <v>4853.4520000000002</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="9">
         <v>3323.752</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="9">
         <v>6840.34</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="9">
         <v>4194.6790000000001</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="9">
         <v>3828.5640000000003</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="9">
         <v>5755.2000000000007</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="9">
         <v>316.09999999999997</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="9">
         <v>1656.982</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="9">
         <v>1319.327</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="9">
         <v>2871.0200000000004</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="9">
         <v>1618.4209999999998</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="9">
         <v>2650.4929999999999</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="9">
         <v>3633.2979999999998</v>
       </c>
-      <c r="R21" s="7">
+      <c r="R21" s="9">
         <v>4041.9360000000001</v>
       </c>
-      <c r="S21" s="7">
+      <c r="S21" s="9">
         <v>2710.9660000000003</v>
       </c>
-      <c r="T21" s="7">
+      <c r="T21" s="9">
         <v>2894.7779999999998</v>
       </c>
-      <c r="U21" s="7">
+      <c r="U21" s="9">
         <v>2164.7550000000001</v>
       </c>
-      <c r="V21" s="7">
+      <c r="V21" s="9">
         <v>2731.36</v>
       </c>
-      <c r="W21" s="7">
+      <c r="W21" s="9">
         <v>387.29199999999997</v>
       </c>
-      <c r="X21" s="7">
+      <c r="X21" s="9">
         <v>1290.5189999999998</v>
       </c>
-      <c r="Y21" s="7">
+      <c r="Y21" s="9">
         <v>3006.1040000000003</v>
       </c>
-      <c r="Z21" s="7">
+      <c r="Z21" s="9">
         <v>1962.248</v>
       </c>
-      <c r="AA21" s="7">
+      <c r="AA21" s="9">
         <v>2308.7620000000002</v>
       </c>
-      <c r="AB21" s="7">
+      <c r="AB21" s="9">
         <v>526</v>
       </c>
-      <c r="AC21" s="7">
+      <c r="AC21" s="9">
         <v>3186.3999999999996</v>
       </c>
-      <c r="AD21" s="7">
+      <c r="AD21" s="9">
         <v>2435.3989999999999</v>
       </c>
-      <c r="AE21" s="7">
+      <c r="AE21" s="9">
         <v>1676.4</v>
       </c>
-      <c r="AF21" s="7">
+      <c r="AF21" s="9">
         <v>811.38499999999999</v>
       </c>
-      <c r="AG21" s="7">
+      <c r="AG21" s="9">
         <v>2760.5050000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>2009</v>
-      </c>
-      <c r="B22" s="7">
+    <row r="22" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8">
+        <v>40178</v>
+      </c>
+      <c r="B22" s="9">
         <v>85517.8</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="9">
         <v>1169.4590000000001</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="9">
         <v>781.45600000000002</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="9">
         <v>4880.2520000000004</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="9">
         <v>3536.2940000000003</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="9">
         <v>8074.24</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="9">
         <v>4229.3220000000001</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="9">
         <v>3913.5550000000003</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="9">
         <v>5756.1</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="9">
         <v>317.7</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="9">
         <v>1655.5309999999999</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="9">
         <v>1678.2439999999999</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="9">
         <v>2849.8540000000003</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="9">
         <v>2109.7359999999999</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="9">
         <v>2712.393</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="Q22" s="9">
         <v>3685.68</v>
       </c>
-      <c r="R22" s="7">
+      <c r="R22" s="9">
         <v>3949.2709999999997</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S22" s="9">
         <v>2980.27</v>
       </c>
-      <c r="T22" s="7">
+      <c r="T22" s="9">
         <v>3692.9949999999999</v>
       </c>
-      <c r="U22" s="7">
+      <c r="U22" s="9">
         <v>2478.5990000000006</v>
       </c>
-      <c r="V22" s="7">
+      <c r="V22" s="9">
         <v>3125.9680000000003</v>
       </c>
-      <c r="W22" s="7">
+      <c r="W22" s="9">
         <v>387.29199999999997</v>
       </c>
-      <c r="X22" s="7">
+      <c r="X22" s="9">
         <v>1317.6409999999998</v>
       </c>
-      <c r="Y22" s="7">
+      <c r="Y22" s="9">
         <v>3257.9029999999998</v>
       </c>
-      <c r="Z22" s="7">
+      <c r="Z22" s="9">
         <v>1982.605</v>
       </c>
-      <c r="AA22" s="7">
+      <c r="AA22" s="9">
         <v>2474.73</v>
       </c>
-      <c r="AB22" s="7">
+      <c r="AB22" s="9">
         <v>525.54700000000003</v>
       </c>
-      <c r="AC22" s="7">
+      <c r="AC22" s="9">
         <v>3319.5</v>
       </c>
-      <c r="AD22" s="7">
+      <c r="AD22" s="9">
         <v>2435.355</v>
       </c>
-      <c r="AE22" s="7">
+      <c r="AE22" s="9">
         <v>1676.8969999999999</v>
       </c>
-      <c r="AF22" s="7">
+      <c r="AF22" s="9">
         <v>889.98500000000001</v>
       </c>
-      <c r="AG22" s="8">
+      <c r="AG22" s="10">
         <v>3673.4049999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>2010</v>
+    <row r="23" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5">
+        <v>40543</v>
       </c>
       <c r="B23" s="2">
         <v>91178.5</v>
@@ -3124,312 +3123,311 @@
         <v>4228.835</v>
       </c>
     </row>
-    <row r="24" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <v>2011</v>
-      </c>
-      <c r="B24" s="5">
+    <row r="24" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8">
+        <v>40908</v>
+      </c>
+      <c r="B24" s="6">
         <v>93249.600000000006</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="6">
         <v>1228.4000000000001</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="6">
         <v>866.9</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="6">
         <v>5170.5</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="6">
         <v>3773.6</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="6">
         <v>9161.7999999999993</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="6">
         <v>4302.3</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="6">
         <v>3988.1</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="6">
         <v>5945.3</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="6">
         <v>461.3</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="6">
         <v>2349.6</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="6">
         <v>1779.1</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="6">
         <v>3120.8</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="6">
         <v>2110.3000000000002</v>
       </c>
-      <c r="P24" s="5">
+      <c r="P24" s="6">
         <v>2834.5</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="Q24" s="6">
         <v>4200.3</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R24" s="6">
         <v>4261.1000000000004</v>
       </c>
-      <c r="S24" s="5">
+      <c r="S24" s="6">
         <v>3354.9</v>
       </c>
-      <c r="T24" s="5">
+      <c r="T24" s="6">
         <v>3696.3</v>
       </c>
-      <c r="U24" s="5">
+      <c r="U24" s="6">
         <v>2832.1</v>
       </c>
-      <c r="V24" s="5">
+      <c r="V24" s="6">
         <v>3194.2</v>
       </c>
-      <c r="W24" s="5">
+      <c r="W24" s="6">
         <v>693.7</v>
       </c>
-      <c r="X24" s="5">
+      <c r="X24" s="6">
         <v>1373.4</v>
       </c>
-      <c r="Y24" s="5">
+      <c r="Y24" s="6">
         <v>3516.4</v>
       </c>
-      <c r="Z24" s="5">
+      <c r="Z24" s="6">
         <v>2070</v>
       </c>
-      <c r="AA24" s="5">
+      <c r="AA24" s="6">
         <v>2491.3000000000002</v>
       </c>
-      <c r="AB24" s="5">
+      <c r="AB24" s="6">
         <v>531.5</v>
       </c>
-      <c r="AC24" s="5">
+      <c r="AC24" s="6">
         <v>4083.4</v>
       </c>
-      <c r="AD24" s="5">
+      <c r="AD24" s="6">
         <v>2440.9</v>
       </c>
-      <c r="AE24" s="5">
+      <c r="AE24" s="6">
         <v>1857.6</v>
       </c>
-      <c r="AF24" s="5">
+      <c r="AF24" s="6">
         <v>1239.5999999999999</v>
       </c>
-      <c r="AG24" s="6">
+      <c r="AG24" s="7">
         <v>4320.3999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>2012</v>
-      </c>
-      <c r="B25" s="7">
+    <row r="25" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5">
+        <v>41274</v>
+      </c>
+      <c r="B25" s="9">
         <v>97625.324000000037</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="9">
         <v>1276.2339999999999</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="9">
         <v>867.69799999999987</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="9">
         <v>5630.2389999999996</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="9">
         <v>3774.4799999999996</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="9">
         <v>9474.3449999999993</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="9">
         <v>5006.4120000000003</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="9">
         <v>4398.357</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="9">
         <v>6021.79</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="9">
         <v>465.9</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="9">
         <v>2354.6109999999999</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="9">
         <v>1779.1000000000001</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="9">
         <v>3259.8040000000001</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25" s="9">
         <v>2255.1390000000001</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25" s="9">
         <v>2834.511</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="Q25" s="9">
         <v>4288.0560000000005</v>
       </c>
-      <c r="R25" s="7">
+      <c r="R25" s="9">
         <v>4890.3389999999999</v>
       </c>
-      <c r="S25" s="7">
+      <c r="S25" s="9">
         <v>3814.3429999999998</v>
       </c>
-      <c r="T25" s="7">
+      <c r="T25" s="9">
         <v>3828.4090000000001</v>
       </c>
-      <c r="U25" s="7">
+      <c r="U25" s="9">
         <v>2846.0880000000002</v>
       </c>
-      <c r="V25" s="7">
+      <c r="V25" s="9">
         <v>3194.4409999999998</v>
       </c>
-      <c r="W25" s="7">
+      <c r="W25" s="9">
         <v>693.7</v>
       </c>
-      <c r="X25" s="7">
+      <c r="X25" s="9">
         <v>1451.6969999999999</v>
       </c>
-      <c r="Y25" s="7">
+      <c r="Y25" s="9">
         <v>3533.4520000000002</v>
       </c>
-      <c r="Z25" s="7">
+      <c r="Z25" s="9">
         <v>2057.8470000000002</v>
       </c>
-      <c r="AA25" s="7">
+      <c r="AA25" s="9">
         <v>2619.4070000000002</v>
       </c>
-      <c r="AB25" s="7">
+      <c r="AB25" s="9">
         <v>531.54700000000003</v>
       </c>
-      <c r="AC25" s="7">
+      <c r="AC25" s="9">
         <v>4093.4600000000005</v>
       </c>
-      <c r="AD25" s="7">
+      <c r="AD25" s="9">
         <v>2487.0639999999999</v>
       </c>
-      <c r="AE25" s="7">
+      <c r="AE25" s="9">
         <v>1857.645</v>
       </c>
-      <c r="AF25" s="7">
+      <c r="AF25" s="9">
         <v>1289.479</v>
       </c>
-      <c r="AG25" s="8">
+      <c r="AG25" s="10">
         <v>4749.7299999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:33" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>2013</v>
-      </c>
-      <c r="B26" s="7">
+    <row r="26" spans="1:33" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="8">
+        <v>41639</v>
+      </c>
+      <c r="B26" s="9">
         <v>103144.6</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="9">
         <v>1276.5999999999999</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="9">
         <v>963.5</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="9">
         <v>6255.5</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="9">
         <v>3786.4</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="9">
         <v>10203.299999999999</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="9">
         <v>5104.3999999999996</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="9">
         <v>4397.2</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="9">
         <v>6021.8</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="9">
         <v>465</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="9">
         <v>2599.6999999999998</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="9">
         <v>2044.5</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="9">
         <v>3513.1</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="9">
         <v>2747.8</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="9">
         <v>3084.3</v>
       </c>
-      <c r="Q26" s="7">
+      <c r="Q26" s="9">
         <v>4288.1000000000004</v>
       </c>
-      <c r="R26" s="7">
+      <c r="R26" s="9">
         <v>4890.3999999999996</v>
       </c>
-      <c r="S26" s="7">
+      <c r="S26" s="9">
         <v>3929.6</v>
       </c>
-      <c r="T26" s="7">
+      <c r="T26" s="9">
         <v>4026.6</v>
       </c>
-      <c r="U26" s="7">
+      <c r="U26" s="9">
         <v>3471.7</v>
       </c>
-      <c r="V26" s="7">
+      <c r="V26" s="9">
         <v>4013.4</v>
       </c>
-      <c r="W26" s="7">
+      <c r="W26" s="9">
         <v>693.7</v>
       </c>
-      <c r="X26" s="7">
+      <c r="X26" s="9">
         <v>1680.1</v>
       </c>
-      <c r="Y26" s="7">
+      <c r="Y26" s="9">
         <v>3539.4</v>
       </c>
-      <c r="Z26" s="7">
+      <c r="Z26" s="9">
         <v>2093</v>
       </c>
-      <c r="AA26" s="7">
+      <c r="AA26" s="9">
         <v>2618.8000000000002</v>
       </c>
-      <c r="AB26" s="7">
+      <c r="AB26" s="9">
         <v>531.5</v>
       </c>
-      <c r="AC26" s="7">
+      <c r="AC26" s="9">
         <v>4421.1000000000004</v>
       </c>
-      <c r="AD26" s="7">
+      <c r="AD26" s="9">
         <v>2595.9</v>
       </c>
-      <c r="AE26" s="7">
+      <c r="AE26" s="9">
         <v>1857.6</v>
       </c>
-      <c r="AF26" s="7">
+      <c r="AF26" s="9">
         <v>1289.5</v>
       </c>
-      <c r="AG26" s="8">
+      <c r="AG26" s="10">
         <v>4741.3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>